--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2849.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2849.xlsx
@@ -354,7 +354,7 @@
         <v>2.294238534947262</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.314675327066035</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2849.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2849.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172015576492456</v>
+        <v>1.273867249488831</v>
       </c>
       <c r="B1">
-        <v>2.294238534947262</v>
+        <v>1.84672749042511</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.265507221221924</v>
       </c>
       <c r="D1">
-        <v>2.314675327066035</v>
+        <v>3.013212919235229</v>
       </c>
       <c r="E1">
-        <v>1.226733165830891</v>
+        <v>1.15052318572998</v>
       </c>
     </row>
   </sheetData>
